--- a/数据整理/stocks/港股/09666-金科服务.xlsx
+++ b/数据整理/stocks/港股/09666-金科服务.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.02</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -744,15 +834,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.61</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09666-金科服务.xlsx
+++ b/数据整理/stocks/港股/09666-金科服务.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09666-金科服务.xlsx
+++ b/数据整理/stocks/港股/09666-金科服务.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09666-金科服务.xlsx
+++ b/数据整理/stocks/港股/09666-金科服务.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09666-金科服务.xlsx
+++ b/数据整理/stocks/港股/09666-金科服务.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.47</v>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.77</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1460,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09666-金科服务.xlsx
+++ b/数据整理/stocks/港股/09666-金科服务.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1509,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1547,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.77</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1585,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09666-金科服务.xlsx
+++ b/数据整理/stocks/港股/09666-金科服务.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1821,14 +1908,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
@@ -1837,14 +2046,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.77</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -1853,13 +2062,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09666-金科服务.xlsx
+++ b/数据整理/stocks/港股/09666-金科服务.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.47</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.77</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1337,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1583,7 +1732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1677,7 +1826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1923,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
